--- a/Excel/StartZoneConfig.xlsx
+++ b/Excel/StartZoneConfig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCE7FF-FB74-4137-92CF-AEE95694C741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -36,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mongdb://127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,13 +54,17 @@
   </si>
   <si>
     <t>ET2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb://localhost:27017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,6 +230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -463,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
@@ -471,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
@@ -493,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
@@ -504,10 +539,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
